--- a/SO Details_1682005641473.xlsx
+++ b/SO Details_1682005641473.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\237476\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sow_Final\Sow_Push\Sow_Integrated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21901890-5A11-4842-85C6-F3BE5998FA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988058F1-F334-49E9-8C7A-76F516001325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,8 +247,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,16 +592,19 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
@@ -689,7 +693,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -781,7 +785,7 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
@@ -873,7 +877,7 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -965,7 +969,7 @@
       <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">

--- a/SO Details_1682005641473.xlsx
+++ b/SO Details_1682005641473.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sow_Final\Sow_Push\Sow_Integrated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988058F1-F334-49E9-8C7A-76F516001325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424074CC-9E48-4583-AB4C-542A0E3FC2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>Role</t>
   </si>
@@ -211,7 +211,10 @@
     <t>StatusName</t>
   </si>
   <si>
-    <t>pra</t>
+    <t>Raghava</t>
+  </si>
+  <si>
+    <t>4567321</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -970,7 +973,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/SO Details_1682005641473.xlsx
+++ b/SO Details_1682005641473.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sow_Final\Sow_Push\Sow_Integrated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424074CC-9E48-4583-AB4C-542A0E3FC2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D531113-8D66-45AD-A0A6-E9C04DB9F2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SO Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SO Data'!$A$1:$AD$5</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -592,10 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -692,7 +696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -876,7 +880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -968,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1058,6 +1062,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="admin"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
